--- a/Hardware/Crenshaw-BOM.xlsx
+++ b/Hardware/Crenshaw-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Crenshaw\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794E332E-FCFE-4EF2-85D8-C28AC1BB58E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD625C-BEE4-4A56-B97B-E319D8F6514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="30960" windowHeight="14256" xr2:uid="{5CEEA534-026F-4018-A2AF-738414BC7216}"/>
+    <workbookView xWindow="5724" yWindow="2424" windowWidth="30960" windowHeight="14256" xr2:uid="{5CEEA534-026F-4018-A2AF-738414BC7216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Schottky</t>
   </si>
   <si>
-    <t>SOD-323</t>
-  </si>
-  <si>
     <t>&lt;.5VF</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>3.3v LDO</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -537,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -548,16 +548,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -565,16 +565,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -582,16 +582,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>

--- a/Hardware/Crenshaw-BOM.xlsx
+++ b/Hardware/Crenshaw-BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Crenshaw\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD625C-BEE4-4A56-B97B-E319D8F6514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EF87AD-D0FD-412D-93A4-7B43FCB73FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5724" yWindow="2424" windowWidth="30960" windowHeight="14256" xr2:uid="{5CEEA534-026F-4018-A2AF-738414BC7216}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Component</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>SOD-123</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>1.3"</t>
+  </si>
+  <si>
+    <t>SSD1306</t>
   </si>
 </sst>
 </file>
@@ -463,16 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52241DF-7EEB-44E9-9401-32DD3160B3DC}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.88671875" bestFit="1" customWidth="1"/>
@@ -548,16 +560,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -565,7 +577,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -574,31 +586,45 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
@@ -647,6 +673,9 @@
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
